--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H2">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I2">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J2">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N2">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O2">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P2">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q2">
-        <v>200.2971356652367</v>
+        <v>246.98051780418</v>
       </c>
       <c r="R2">
-        <v>200.2971356652367</v>
+        <v>2222.82466023762</v>
       </c>
       <c r="S2">
-        <v>0.03613931896424954</v>
+        <v>0.03903253006401221</v>
       </c>
       <c r="T2">
-        <v>0.03613931896424954</v>
+        <v>0.04218487884560473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H3">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I3">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J3">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N3">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P3">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q3">
-        <v>0.7939486463628723</v>
+        <v>1.12246450326</v>
       </c>
       <c r="R3">
-        <v>0.7939486463628723</v>
+        <v>10.10218052934</v>
       </c>
       <c r="S3">
-        <v>0.0001432509919667408</v>
+        <v>0.0001773930586056167</v>
       </c>
       <c r="T3">
-        <v>0.0001432509919667408</v>
+        <v>0.0001917196931138412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H4">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I4">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J4">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N4">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O4">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P4">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q4">
-        <v>45.309034821462</v>
+        <v>53.62848781812001</v>
       </c>
       <c r="R4">
-        <v>45.309034821462</v>
+        <v>482.65639036308</v>
       </c>
       <c r="S4">
-        <v>0.008175042822937866</v>
+        <v>0.008475387377347437</v>
       </c>
       <c r="T4">
-        <v>0.008175042822937866</v>
+        <v>0.009159877391924769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H5">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I5">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J5">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N5">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O5">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P5">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q5">
-        <v>43.92298833830061</v>
+        <v>51.72638919696</v>
       </c>
       <c r="R5">
-        <v>43.92298833830061</v>
+        <v>465.53750277264</v>
       </c>
       <c r="S5">
-        <v>0.007924960485075759</v>
+        <v>0.008174781798108962</v>
       </c>
       <c r="T5">
-        <v>0.007924960485075759</v>
+        <v>0.008834994277258836</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H6">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I6">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J6">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N6">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O6">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P6">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q6">
-        <v>9.10559652674711</v>
+        <v>10.61728766226</v>
       </c>
       <c r="R6">
-        <v>9.10559652674711</v>
+        <v>63.70372597356</v>
       </c>
       <c r="S6">
-        <v>0.001642909451235801</v>
+        <v>0.001677944493597687</v>
       </c>
       <c r="T6">
-        <v>0.001642909451235801</v>
+        <v>0.00120897253403737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J7">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N7">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O7">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P7">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q7">
-        <v>2037.522228652038</v>
+        <v>2462.230314658425</v>
       </c>
       <c r="R7">
-        <v>2037.522228652038</v>
+        <v>22160.07283192582</v>
       </c>
       <c r="S7">
-        <v>0.3676271528968477</v>
+        <v>0.389128177541624</v>
       </c>
       <c r="T7">
-        <v>0.3676271528968477</v>
+        <v>0.4205549831918075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J8">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N8">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P8">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q8">
-        <v>8.076441083392451</v>
+        <v>11.19021917852667</v>
       </c>
       <c r="R8">
-        <v>8.076441083392451</v>
+        <v>100.71197260674</v>
       </c>
       <c r="S8">
-        <v>0.001457220441217457</v>
+        <v>0.001768489961848058</v>
       </c>
       <c r="T8">
-        <v>0.001457220441217457</v>
+        <v>0.001911316910737809</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J9">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N9">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O9">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P9">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q9">
-        <v>460.9060698790647</v>
+        <v>534.6400987779866</v>
       </c>
       <c r="R9">
-        <v>460.9060698790647</v>
+        <v>4811.76088900188</v>
       </c>
       <c r="S9">
-        <v>0.08316060744751404</v>
+        <v>0.08449393464112753</v>
       </c>
       <c r="T9">
-        <v>0.08316060744751404</v>
+        <v>0.09131784155879602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J10">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N10">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O10">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P10">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q10">
-        <v>446.8065146856927</v>
+        <v>515.6774497070044</v>
       </c>
       <c r="R10">
-        <v>446.8065146856927</v>
+        <v>4641.09704736304</v>
       </c>
       <c r="S10">
-        <v>0.08061664534493591</v>
+        <v>0.08149709838644258</v>
       </c>
       <c r="T10">
-        <v>0.08061664534493591</v>
+        <v>0.08807897453898783</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J11">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N11">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O11">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P11">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q11">
-        <v>92.62666321595353</v>
+        <v>105.84724566086</v>
       </c>
       <c r="R11">
-        <v>92.62666321595353</v>
+        <v>635.0834739651599</v>
       </c>
       <c r="S11">
-        <v>0.01671249324378855</v>
+        <v>0.01672798257604301</v>
       </c>
       <c r="T11">
-        <v>0.01671249324378855</v>
+        <v>0.01205264629518825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H12">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I12">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J12">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N12">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O12">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P12">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q12">
-        <v>245.101714793304</v>
+        <v>277.2210002176085</v>
       </c>
       <c r="R12">
-        <v>245.101714793304</v>
+        <v>2494.989001958477</v>
       </c>
       <c r="S12">
-        <v>0.04422334358492321</v>
+        <v>0.04381170272688693</v>
       </c>
       <c r="T12">
-        <v>0.04422334358492321</v>
+        <v>0.04735002749046489</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H13">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I13">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J13">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N13">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P13">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q13">
-        <v>0.9715474663931342</v>
+        <v>1.259899910604333</v>
       </c>
       <c r="R13">
-        <v>0.9715474663931342</v>
+        <v>11.339099195439</v>
       </c>
       <c r="S13">
-        <v>0.0001752948870700393</v>
+        <v>0.0001991131995977928</v>
       </c>
       <c r="T13">
-        <v>0.0001752948870700393</v>
+        <v>0.0002151939981297282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H14">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I14">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J14">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N14">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O14">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P14">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q14">
-        <v>55.44423834862302</v>
+        <v>60.19480064773533</v>
       </c>
       <c r="R14">
-        <v>55.44423834862302</v>
+        <v>541.753205829618</v>
       </c>
       <c r="S14">
-        <v>0.01000372275797116</v>
+        <v>0.009513120252840386</v>
       </c>
       <c r="T14">
-        <v>0.01000372275797116</v>
+        <v>0.0102814197453151</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H15">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I15">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J15">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N15">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O15">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P15">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q15">
-        <v>53.74814634671903</v>
+        <v>58.05980762497155</v>
       </c>
       <c r="R15">
-        <v>53.74814634671903</v>
+        <v>522.5382686247439</v>
       </c>
       <c r="S15">
-        <v>0.00969769936105166</v>
+        <v>0.009175708297887908</v>
       </c>
       <c r="T15">
-        <v>0.00969769936105166</v>
+        <v>0.009916757695035854</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H16">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I16">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J16">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N16">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O16">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P16">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q16">
-        <v>11.14243254407666</v>
+        <v>11.917276437421</v>
       </c>
       <c r="R16">
-        <v>11.14243254407666</v>
+        <v>71.50365862452598</v>
       </c>
       <c r="S16">
-        <v>0.002010412792028306</v>
+        <v>0.001883393293367315</v>
       </c>
       <c r="T16">
-        <v>0.002010412792028306</v>
+        <v>0.001357000050454118</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H17">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I17">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J17">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N17">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O17">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P17">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q17">
-        <v>428.9005129036056</v>
+        <v>460.7125001303042</v>
       </c>
       <c r="R17">
-        <v>428.9005129036056</v>
+        <v>4146.412501172738</v>
       </c>
       <c r="S17">
-        <v>0.07738589165678132</v>
+        <v>0.07281049805904156</v>
       </c>
       <c r="T17">
-        <v>0.07738589165678132</v>
+        <v>0.07869082619731883</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H18">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I18">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J18">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N18">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O18">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P18">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q18">
-        <v>1.700099107823939</v>
+        <v>2.093822752507333</v>
       </c>
       <c r="R18">
-        <v>1.700099107823939</v>
+        <v>18.844404772566</v>
       </c>
       <c r="S18">
-        <v>0.0003067463931744529</v>
+        <v>0.0003309054506102914</v>
       </c>
       <c r="T18">
-        <v>0.0003067463931744529</v>
+        <v>0.0003576300670351804</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H19">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I19">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J19">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N19">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O19">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P19">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q19">
-        <v>97.02119907781169</v>
+        <v>100.0375046605213</v>
       </c>
       <c r="R19">
-        <v>97.02119907781169</v>
+        <v>900.337541944692</v>
       </c>
       <c r="S19">
-        <v>0.01750539291598835</v>
+        <v>0.01580981748239122</v>
       </c>
       <c r="T19">
-        <v>0.01750539291598835</v>
+        <v>0.01708665141542305</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H20">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I20">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J20">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N20">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O20">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P20">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q20">
-        <v>94.05322829000308</v>
+        <v>96.48936807452623</v>
       </c>
       <c r="R20">
-        <v>94.05322829000308</v>
+        <v>868.404312670736</v>
       </c>
       <c r="S20">
-        <v>0.01696988629168765</v>
+        <v>0.015249073869108</v>
       </c>
       <c r="T20">
-        <v>0.01696988629168765</v>
+        <v>0.01648062097489035</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H21">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I21">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J21">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N21">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O21">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P21">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q21">
-        <v>19.49800733617251</v>
+        <v>19.805275278274</v>
       </c>
       <c r="R21">
-        <v>19.49800733617251</v>
+        <v>118.831651669644</v>
       </c>
       <c r="S21">
-        <v>0.003517996919670947</v>
+        <v>0.003130003976014759</v>
       </c>
       <c r="T21">
-        <v>0.003517996919670947</v>
+        <v>0.002255193096594113</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H22">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I22">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J22">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N22">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O22">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P22">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q22">
-        <v>795.63506728371</v>
+        <v>845.3295084229414</v>
       </c>
       <c r="R22">
-        <v>795.63506728371</v>
+        <v>5071.977050537648</v>
       </c>
       <c r="S22">
-        <v>0.1435552704246614</v>
+        <v>0.1335949480747128</v>
       </c>
       <c r="T22">
-        <v>0.1435552704246614</v>
+        <v>0.09625623703569398</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H23">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I23">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J23">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N23">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O23">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P23">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q23">
-        <v>3.153781418644472</v>
+        <v>3.841810581656</v>
       </c>
       <c r="R23">
-        <v>3.153781418644472</v>
+        <v>23.050863489936</v>
       </c>
       <c r="S23">
-        <v>0.0005690321644060209</v>
+        <v>0.0006071555293588834</v>
       </c>
       <c r="T23">
-        <v>0.0005690321644060209</v>
+        <v>0.0004374604533609835</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H24">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I24">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J24">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N24">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O24">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P24">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q24">
-        <v>179.979892618058</v>
+        <v>183.551899752272</v>
       </c>
       <c r="R24">
-        <v>179.979892618058</v>
+        <v>1101.311398513632</v>
       </c>
       <c r="S24">
-        <v>0.03247350854455713</v>
+        <v>0.02900834085653478</v>
       </c>
       <c r="T24">
-        <v>0.03247350854455713</v>
+        <v>0.02090074343183445</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H25">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I25">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J25">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N25">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O25">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P25">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q25">
-        <v>174.4741364661997</v>
+        <v>177.0416692827093</v>
       </c>
       <c r="R25">
-        <v>174.4741364661997</v>
+        <v>1062.250015696256</v>
       </c>
       <c r="S25">
-        <v>0.0314801130221971</v>
+        <v>0.02797947117569491</v>
       </c>
       <c r="T25">
-        <v>0.0314801130221971</v>
+        <v>0.02015943453277056</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H26">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I26">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J26">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N26">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O26">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P26">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q26">
-        <v>36.16992265593412</v>
+        <v>36.339330082056</v>
       </c>
       <c r="R26">
-        <v>36.16992265593412</v>
+        <v>145.357320328224</v>
       </c>
       <c r="S26">
-        <v>0.006526086194061876</v>
+        <v>0.005743027857195253</v>
       </c>
       <c r="T26">
-        <v>0.006526086194061876</v>
+        <v>0.002758598578221815</v>
       </c>
     </row>
   </sheetData>
